--- a/Code/Results/Cases/Case_5_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_239/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.4599444327295</v>
+        <v>9.490853973132971</v>
       </c>
       <c r="C2">
-        <v>9.761471222033121</v>
+        <v>7.059523881024914</v>
       </c>
       <c r="D2">
-        <v>5.902341055489135</v>
+        <v>7.23016542682854</v>
       </c>
       <c r="E2">
-        <v>14.06959057220874</v>
+        <v>11.7315790012234</v>
       </c>
       <c r="F2">
-        <v>40.3154181152191</v>
+        <v>38.72962792929081</v>
       </c>
       <c r="I2">
-        <v>28.70169580431074</v>
+        <v>30.23405911477383</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.41527875815144</v>
+        <v>10.65070691646888</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.53877891959149</v>
+        <v>14.67389947728574</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.66843753003462</v>
+        <v>9.349053031241512</v>
       </c>
       <c r="C3">
-        <v>9.055237382419982</v>
+        <v>6.853847722207009</v>
       </c>
       <c r="D3">
-        <v>5.894403147259764</v>
+        <v>7.215854189163946</v>
       </c>
       <c r="E3">
-        <v>13.19396988205233</v>
+        <v>11.49052634643768</v>
       </c>
       <c r="F3">
-        <v>38.58890521176433</v>
+        <v>38.26644242949627</v>
       </c>
       <c r="I3">
-        <v>27.76710928029132</v>
+        <v>30.00185048550637</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.65417563025871</v>
+        <v>10.55337400510517</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.54076504411088</v>
+        <v>14.5482192420212</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.15725854734391</v>
+        <v>9.26501479525829</v>
       </c>
       <c r="C4">
-        <v>8.600190609828719</v>
+        <v>6.726976198064594</v>
       </c>
       <c r="D4">
-        <v>5.889505362684755</v>
+        <v>7.206760901445559</v>
       </c>
       <c r="E4">
-        <v>12.64015799845745</v>
+        <v>11.34354466096589</v>
       </c>
       <c r="F4">
-        <v>37.51562048502075</v>
+        <v>37.98535806896161</v>
       </c>
       <c r="I4">
-        <v>27.19284471938283</v>
+        <v>29.86185222809553</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.16352722658532</v>
+        <v>10.49705343536169</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.89793291043478</v>
+        <v>14.47503259056658</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.942530297577548</v>
+        <v>9.231584466157724</v>
       </c>
       <c r="C5">
-        <v>8.409287571724049</v>
+        <v>6.675220826125078</v>
       </c>
       <c r="D5">
-        <v>5.88749855523931</v>
+        <v>7.202978009991683</v>
       </c>
       <c r="E5">
-        <v>12.41052695461998</v>
+        <v>11.28399334106054</v>
       </c>
       <c r="F5">
-        <v>37.07533853072951</v>
+        <v>37.87174994336257</v>
       </c>
       <c r="I5">
-        <v>26.95888436108255</v>
+        <v>29.80548439892484</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.957650783347043</v>
+        <v>10.47499534734592</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.6283089388791</v>
+        <v>14.44623943025396</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.906484801965869</v>
+        <v>9.226084221934904</v>
       </c>
       <c r="C6">
-        <v>8.377255748280126</v>
+        <v>6.666626419588819</v>
       </c>
       <c r="D6">
-        <v>5.88716452979352</v>
+        <v>7.202345185233777</v>
       </c>
       <c r="E6">
-        <v>12.37216296101982</v>
+        <v>11.27412827762282</v>
       </c>
       <c r="F6">
-        <v>37.00206765998648</v>
+        <v>37.85294489761796</v>
       </c>
       <c r="I6">
-        <v>26.92004406793479</v>
+        <v>29.79616676047198</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.923105021781915</v>
+        <v>10.47138731598167</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.58307218936621</v>
+        <v>14.44152144567746</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.1543887437422</v>
+        <v>9.264560567851172</v>
       </c>
       <c r="C7">
-        <v>8.59763826772468</v>
+        <v>6.726278300187218</v>
       </c>
       <c r="D7">
-        <v>5.889478348635443</v>
+        <v>7.206710197493325</v>
       </c>
       <c r="E7">
-        <v>12.63707690343546</v>
+        <v>11.34274001899143</v>
       </c>
       <c r="F7">
-        <v>37.50969387658935</v>
+        <v>37.98382198597133</v>
       </c>
       <c r="I7">
-        <v>27.18968898480651</v>
+        <v>29.86108922411268</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.16077481048683</v>
+        <v>10.49675230181827</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.89432783723222</v>
+        <v>14.47464006373736</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.19220863467821</v>
+        <v>9.441365741201324</v>
       </c>
       <c r="C8">
-        <v>9.522354880196902</v>
+        <v>6.988782632331112</v>
       </c>
       <c r="D8">
-        <v>5.899605944946237</v>
+        <v>7.225294254072631</v>
       </c>
       <c r="E8">
-        <v>13.77108992709503</v>
+        <v>11.64830309370883</v>
       </c>
       <c r="F8">
-        <v>39.72307854887081</v>
+        <v>38.56929616942924</v>
       </c>
       <c r="I8">
-        <v>28.37962966806382</v>
+        <v>30.15347924391661</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.15764868230104</v>
+        <v>10.61644914519881</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.20083091377473</v>
+        <v>14.62975710341374</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.03160471811028</v>
+        <v>9.809637075753002</v>
       </c>
       <c r="C9">
-        <v>11.16989807365738</v>
+        <v>7.495071363077408</v>
       </c>
       <c r="D9">
-        <v>5.919519268973287</v>
+        <v>7.25932359730022</v>
       </c>
       <c r="E9">
-        <v>15.9645898893224</v>
+        <v>12.2518895779382</v>
       </c>
       <c r="F9">
-        <v>43.94480155096708</v>
+        <v>39.73910344683858</v>
       </c>
       <c r="I9">
-        <v>30.70389833919385</v>
+        <v>30.74576070239645</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.93095626788002</v>
+        <v>10.87718919878496</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.53000164376915</v>
+        <v>14.96412290620863</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.26988054211136</v>
+        <v>10.08998293828789</v>
       </c>
       <c r="C10">
-        <v>12.28557738568588</v>
+        <v>7.857132262130735</v>
       </c>
       <c r="D10">
-        <v>5.934557103421487</v>
+        <v>7.282874863594933</v>
       </c>
       <c r="E10">
-        <v>17.57828789374504</v>
+        <v>12.69312999769558</v>
       </c>
       <c r="F10">
-        <v>46.96134385110192</v>
+        <v>40.60557248003055</v>
       </c>
       <c r="I10">
-        <v>32.40047685331142</v>
+        <v>31.19028275970089</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.12877402339416</v>
+        <v>11.082763974937</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.10792750996599</v>
+        <v>15.22616885684338</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.81016578668206</v>
+        <v>10.21892906082931</v>
       </c>
       <c r="C11">
-        <v>12.77413251536065</v>
+        <v>8.018810742887158</v>
       </c>
       <c r="D11">
-        <v>5.941582731101847</v>
+        <v>7.293278613833119</v>
       </c>
       <c r="E11">
-        <v>18.28672478990251</v>
+        <v>12.89240667693939</v>
       </c>
       <c r="F11">
-        <v>48.31416173295388</v>
+        <v>40.99995357179781</v>
       </c>
       <c r="I11">
-        <v>33.16948306008586</v>
+        <v>31.39406609418525</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.65234167003817</v>
+        <v>11.17890880643785</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.79901502093464</v>
+        <v>15.34848150138972</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.01158883174313</v>
+        <v>10.26790286915748</v>
       </c>
       <c r="C12">
-        <v>12.95655486666297</v>
+        <v>8.079534345704964</v>
       </c>
       <c r="D12">
-        <v>5.94427898555696</v>
+        <v>7.297174014412793</v>
       </c>
       <c r="E12">
-        <v>18.55153617866742</v>
+        <v>12.96758360663903</v>
       </c>
       <c r="F12">
-        <v>48.82367328614633</v>
+        <v>41.14921750816949</v>
       </c>
       <c r="I12">
-        <v>33.46030514980608</v>
+        <v>31.47141773517939</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.84767367346784</v>
+        <v>11.21565811775102</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.05707604857972</v>
+        <v>15.39520507833258</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.96834746877203</v>
+        <v>10.25734996710978</v>
       </c>
       <c r="C13">
-        <v>12.91737933269952</v>
+        <v>8.066479670605842</v>
       </c>
       <c r="D13">
-        <v>5.943696546516352</v>
+        <v>7.296337034881619</v>
       </c>
       <c r="E13">
-        <v>18.4946541671942</v>
+        <v>12.95140675591184</v>
       </c>
       <c r="F13">
-        <v>48.71406282104279</v>
+        <v>41.11707614151184</v>
       </c>
       <c r="I13">
-        <v>33.39768774748951</v>
+        <v>31.45475119735271</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.80573350045835</v>
+        <v>11.20772889969635</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.00165633291003</v>
+        <v>15.38512489131767</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.82679969795059</v>
+        <v>10.22295559669133</v>
       </c>
       <c r="C14">
-        <v>12.78919138567283</v>
+        <v>8.023816895085773</v>
       </c>
       <c r="D14">
-        <v>5.941803778841956</v>
+        <v>7.293599976511739</v>
       </c>
       <c r="E14">
-        <v>18.30857887946636</v>
+        <v>12.89859766165074</v>
       </c>
       <c r="F14">
-        <v>48.35613465652154</v>
+        <v>41.01223583210326</v>
       </c>
       <c r="I14">
-        <v>33.19341661087425</v>
+        <v>31.40042642911892</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.66846967769645</v>
+        <v>11.18192556373004</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.8203175348977</v>
+        <v>15.35231756547206</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.7396889444383</v>
+        <v>10.20190517778811</v>
       </c>
       <c r="C15">
-        <v>12.71034079253558</v>
+        <v>7.997617689673725</v>
       </c>
       <c r="D15">
-        <v>5.94064936103206</v>
+        <v>7.291917691693489</v>
       </c>
       <c r="E15">
-        <v>18.19415929619726</v>
+        <v>12.86621126508686</v>
       </c>
       <c r="F15">
-        <v>48.1365345726629</v>
+        <v>40.94800447544878</v>
       </c>
       <c r="I15">
-        <v>33.06824588451819</v>
+        <v>31.36717355539476</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.58401410321282</v>
+        <v>11.16616363885228</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.70877484211553</v>
+        <v>15.3322738549268</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.23412003568797</v>
+        <v>10.08157942515307</v>
       </c>
       <c r="C16">
-        <v>12.25327944401038</v>
+        <v>7.84649957935155</v>
       </c>
       <c r="D16">
-        <v>5.934102442716356</v>
+        <v>7.282188743419475</v>
       </c>
       <c r="E16">
-        <v>17.53149284353483</v>
+        <v>12.68007103168759</v>
       </c>
       <c r="F16">
-        <v>46.87254305133603</v>
+        <v>40.57979362402626</v>
       </c>
       <c r="I16">
-        <v>32.35016490979917</v>
+        <v>31.17699299670792</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.09413969675662</v>
+        <v>11.07653044952907</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.06224251724412</v>
+        <v>15.21823452057548</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.91816967609218</v>
+        <v>10.0080836823006</v>
       </c>
       <c r="C17">
-        <v>11.96812622685793</v>
+        <v>7.75297015379622</v>
       </c>
       <c r="D17">
-        <v>5.930139654938772</v>
+        <v>7.276141193124258</v>
       </c>
       <c r="E17">
-        <v>17.1185552919452</v>
+        <v>12.56545364517376</v>
       </c>
       <c r="F17">
-        <v>46.09213849320552</v>
+        <v>40.35388483872979</v>
       </c>
       <c r="I17">
-        <v>31.90893126921932</v>
+        <v>31.0606951230191</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.78824674323707</v>
+        <v>11.0221905919536</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.6589100114822</v>
+        <v>15.14904229988134</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.73426830213261</v>
+        <v>9.965947538484517</v>
       </c>
       <c r="C18">
-        <v>11.80231821873786</v>
+        <v>7.698893309955415</v>
       </c>
       <c r="D18">
-        <v>5.927877144715212</v>
+        <v>7.272633622235877</v>
       </c>
       <c r="E18">
-        <v>16.87861569661021</v>
+        <v>12.49939700971867</v>
       </c>
       <c r="F18">
-        <v>45.64143560968918</v>
+        <v>40.22397535109258</v>
       </c>
       <c r="I18">
-        <v>31.65488047419262</v>
+        <v>30.99395380603552</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.610288972176</v>
+        <v>10.99118530936726</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.42439543922588</v>
+        <v>15.10953963589322</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.67162490280596</v>
+        <v>9.95170625233466</v>
       </c>
       <c r="C19">
-        <v>11.74586593556884</v>
+        <v>7.680537624500946</v>
       </c>
       <c r="D19">
-        <v>5.927113717931846</v>
+        <v>7.271440998675192</v>
       </c>
       <c r="E19">
-        <v>16.79695257843767</v>
+        <v>12.47701115411693</v>
       </c>
       <c r="F19">
-        <v>45.48852099035647</v>
+        <v>40.17999833266008</v>
       </c>
       <c r="I19">
-        <v>31.56881801427886</v>
+        <v>30.97138340833551</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.54968537931271</v>
+        <v>10.98073142270702</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.34455276043587</v>
+        <v>15.09621657444384</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.95202728871911</v>
+        <v>10.01589371634867</v>
       </c>
       <c r="C20">
-        <v>11.99866608977094</v>
+        <v>7.762956117759316</v>
       </c>
       <c r="D20">
-        <v>5.930559700752024</v>
+        <v>7.276787983150242</v>
       </c>
       <c r="E20">
-        <v>17.1627630024294</v>
+        <v>12.57766906765962</v>
       </c>
       <c r="F20">
-        <v>46.17540390868115</v>
+        <v>40.37793120399157</v>
       </c>
       <c r="I20">
-        <v>31.95592878997636</v>
+        <v>31.07305999525964</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.82101731528013</v>
+        <v>11.02794959682369</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.70210572409407</v>
+        <v>15.15637770186722</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.86846060667387</v>
+        <v>10.23305459067282</v>
       </c>
       <c r="C21">
-        <v>12.82691215164533</v>
+        <v>8.036362062403164</v>
       </c>
       <c r="D21">
-        <v>5.942358679316525</v>
+        <v>7.294405116273571</v>
       </c>
       <c r="E21">
-        <v>18.36332559399876</v>
+        <v>12.91411729429601</v>
       </c>
       <c r="F21">
-        <v>48.46134143449517</v>
+        <v>41.04303301072035</v>
       </c>
       <c r="I21">
-        <v>33.25342606381083</v>
+        <v>31.41637829306776</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.7088658009844</v>
+        <v>11.18949565771953</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.87367815337551</v>
+        <v>15.36194316578633</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.44899288287497</v>
+        <v>10.37579915618363</v>
       </c>
       <c r="C22">
-        <v>13.35324354150362</v>
+        <v>8.212105107874626</v>
       </c>
       <c r="D22">
-        <v>5.950283885022521</v>
+        <v>7.305660995430284</v>
       </c>
       <c r="E22">
-        <v>19.12793237394498</v>
+        <v>13.13231291977133</v>
       </c>
       <c r="F22">
-        <v>49.93925441981666</v>
+        <v>41.47720120374141</v>
       </c>
       <c r="I22">
-        <v>34.0992186879616</v>
+        <v>31.64180537875269</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.27211236790124</v>
+        <v>11.29704786123849</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.61827079589532</v>
+        <v>15.49864205475223</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.14078701430476</v>
+        <v>10.29955791637651</v>
       </c>
       <c r="C23">
-        <v>13.07364839706558</v>
+        <v>8.118597138785216</v>
       </c>
       <c r="D23">
-        <v>5.946031102655571</v>
+        <v>7.299677030823412</v>
       </c>
       <c r="E23">
-        <v>18.72159690931053</v>
+        <v>13.01603697400823</v>
       </c>
       <c r="F23">
-        <v>49.15190548116703</v>
+        <v>41.24556077354951</v>
       </c>
       <c r="I23">
-        <v>33.64798708088156</v>
+        <v>31.52140875375381</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.97300500122681</v>
+        <v>11.23947688772011</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.22272457211396</v>
+        <v>15.42548170633237</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.93672730329062</v>
+        <v>10.01236242934037</v>
       </c>
       <c r="C24">
-        <v>11.98486485199184</v>
+        <v>7.758442410078962</v>
       </c>
       <c r="D24">
-        <v>5.93036974966923</v>
+        <v>7.276495665183575</v>
       </c>
       <c r="E24">
-        <v>17.14278461345462</v>
+        <v>12.57214697257125</v>
       </c>
       <c r="F24">
-        <v>46.13776596249036</v>
+        <v>40.3670599318532</v>
       </c>
       <c r="I24">
-        <v>31.93468239406789</v>
+        <v>31.06746945983827</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.80620827771584</v>
+        <v>11.02534521462411</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.68258515974805</v>
+        <v>15.15306050118375</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.55434682710407</v>
+        <v>9.708048747748441</v>
       </c>
       <c r="C25">
-        <v>10.74133094572939</v>
+        <v>7.359527348687117</v>
       </c>
       <c r="D25">
-        <v>5.914090219271301</v>
+        <v>7.250373940265028</v>
       </c>
       <c r="E25">
-        <v>15.3462133940379</v>
+        <v>12.08864971251944</v>
       </c>
       <c r="F25">
-        <v>42.81704941372902</v>
+        <v>39.42095730829814</v>
       </c>
       <c r="I25">
-        <v>30.07679496469197</v>
+        <v>30.58372714413349</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.47012420461086</v>
+        <v>10.8040528742338</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.92399310138978</v>
+        <v>14.87063865240753</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_239/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.490853973132971</v>
+        <v>11.4599444327295</v>
       </c>
       <c r="C2">
-        <v>7.059523881024914</v>
+        <v>9.761471222033029</v>
       </c>
       <c r="D2">
-        <v>7.23016542682854</v>
+        <v>5.902341055489219</v>
       </c>
       <c r="E2">
-        <v>11.7315790012234</v>
+        <v>14.06959057220879</v>
       </c>
       <c r="F2">
-        <v>38.72962792929081</v>
+        <v>40.3154181152191</v>
       </c>
       <c r="I2">
-        <v>30.23405911477383</v>
+        <v>28.70169580431072</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.65070691646888</v>
+        <v>11.41527875815144</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.67389947728574</v>
+        <v>14.53877891959152</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.349053031241512</v>
+        <v>10.66843753003464</v>
       </c>
       <c r="C3">
-        <v>6.853847722207009</v>
+        <v>9.055237382419937</v>
       </c>
       <c r="D3">
-        <v>7.215854189163946</v>
+        <v>5.894403147259774</v>
       </c>
       <c r="E3">
-        <v>11.49052634643768</v>
+        <v>13.19396988205233</v>
       </c>
       <c r="F3">
-        <v>38.26644242949627</v>
+        <v>38.58890521176436</v>
       </c>
       <c r="I3">
-        <v>30.00185048550637</v>
+        <v>27.76710928029134</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.55337400510517</v>
+        <v>10.6541756302587</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.5482192420212</v>
+        <v>13.5407650441109</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.26501479525829</v>
+        <v>10.15725854734382</v>
       </c>
       <c r="C4">
-        <v>6.726976198064594</v>
+        <v>8.600190609828951</v>
       </c>
       <c r="D4">
-        <v>7.206760901445559</v>
+        <v>5.88950536268465</v>
       </c>
       <c r="E4">
-        <v>11.34354466096589</v>
+        <v>12.64015799845744</v>
       </c>
       <c r="F4">
-        <v>37.98535806896161</v>
+        <v>37.51562048502095</v>
       </c>
       <c r="I4">
-        <v>29.86185222809553</v>
+        <v>27.19284471938303</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.49705343536169</v>
+        <v>10.16352722658536</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.47503259056658</v>
+        <v>12.89793291043477</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.231584466157724</v>
+        <v>9.942530297577585</v>
       </c>
       <c r="C5">
-        <v>6.675220826125078</v>
+        <v>8.409287571723938</v>
       </c>
       <c r="D5">
-        <v>7.202978009991683</v>
+        <v>5.887498555239308</v>
       </c>
       <c r="E5">
-        <v>11.28399334106054</v>
+        <v>12.41052695462001</v>
       </c>
       <c r="F5">
-        <v>37.87174994336257</v>
+        <v>37.07533853072943</v>
       </c>
       <c r="I5">
-        <v>29.80548439892484</v>
+        <v>26.95888436108246</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.47499534734592</v>
+        <v>9.957650783347036</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.44623943025396</v>
+        <v>12.62830893887909</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.226084221934904</v>
+        <v>9.906484801965782</v>
       </c>
       <c r="C6">
-        <v>6.666626419588819</v>
+        <v>8.377255748279927</v>
       </c>
       <c r="D6">
-        <v>7.202345185233777</v>
+        <v>5.887164529793712</v>
       </c>
       <c r="E6">
-        <v>11.27412827762282</v>
+        <v>12.37216296101979</v>
       </c>
       <c r="F6">
-        <v>37.85294489761796</v>
+        <v>37.00206765998679</v>
       </c>
       <c r="I6">
-        <v>29.79616676047198</v>
+        <v>26.92004406793507</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.47138731598167</v>
+        <v>9.923105021781758</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.44152144567746</v>
+        <v>12.58307218936614</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.264560567851172</v>
+        <v>10.15438874374235</v>
       </c>
       <c r="C7">
-        <v>6.726278300187218</v>
+        <v>8.597638267724637</v>
       </c>
       <c r="D7">
-        <v>7.206710197493325</v>
+        <v>5.8894783486353</v>
       </c>
       <c r="E7">
-        <v>11.34274001899143</v>
+        <v>12.63707690343555</v>
       </c>
       <c r="F7">
-        <v>37.98382198597133</v>
+        <v>37.50969387658938</v>
       </c>
       <c r="I7">
-        <v>29.86108922411268</v>
+        <v>27.18968898480644</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.49675230181827</v>
+        <v>10.16077481048691</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.47464006373736</v>
+        <v>12.89432783723228</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.441365741201324</v>
+        <v>11.19220863467814</v>
       </c>
       <c r="C8">
-        <v>6.988782632331112</v>
+        <v>9.522354880196799</v>
       </c>
       <c r="D8">
-        <v>7.225294254072631</v>
+        <v>5.8996059449462</v>
       </c>
       <c r="E8">
-        <v>11.64830309370883</v>
+        <v>13.77108992709505</v>
       </c>
       <c r="F8">
-        <v>38.56929616942924</v>
+        <v>39.72307854887098</v>
       </c>
       <c r="I8">
-        <v>30.15347924391661</v>
+        <v>28.37962966806398</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.61644914519881</v>
+        <v>11.15764868230099</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.62975710341374</v>
+        <v>14.20083091377473</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.809637075753002</v>
+        <v>13.0316047181103</v>
       </c>
       <c r="C9">
-        <v>7.495071363077408</v>
+        <v>11.16989807365754</v>
       </c>
       <c r="D9">
-        <v>7.25932359730022</v>
+        <v>5.919519268973531</v>
       </c>
       <c r="E9">
-        <v>12.2518895779382</v>
+        <v>15.96458988932239</v>
       </c>
       <c r="F9">
-        <v>39.73910344683858</v>
+        <v>43.94480155096713</v>
       </c>
       <c r="I9">
-        <v>30.74576070239645</v>
+        <v>30.70389833919391</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.87718919878496</v>
+        <v>12.93095626788013</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.96412290620863</v>
+        <v>16.53000164376918</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.08998293828789</v>
+        <v>14.26988054211142</v>
       </c>
       <c r="C10">
-        <v>7.857132262130735</v>
+        <v>12.2855773856859</v>
       </c>
       <c r="D10">
-        <v>7.282874863594933</v>
+        <v>5.934557103421614</v>
       </c>
       <c r="E10">
-        <v>12.69312999769558</v>
+        <v>17.57828789374493</v>
       </c>
       <c r="F10">
-        <v>40.60557248003055</v>
+        <v>46.96134385110208</v>
       </c>
       <c r="I10">
-        <v>31.19028275970089</v>
+        <v>32.40047685331152</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.082763974937</v>
+        <v>14.12877402339423</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.22616885684338</v>
+        <v>18.10792750996596</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.21892906082931</v>
+        <v>14.81016578668206</v>
       </c>
       <c r="C11">
-        <v>8.018810742887158</v>
+        <v>12.77413251536072</v>
       </c>
       <c r="D11">
-        <v>7.293278613833119</v>
+        <v>5.941582731101978</v>
       </c>
       <c r="E11">
-        <v>12.89240667693939</v>
+        <v>18.28672478990249</v>
       </c>
       <c r="F11">
-        <v>40.99995357179781</v>
+        <v>48.31416173295386</v>
       </c>
       <c r="I11">
-        <v>31.39406609418525</v>
+        <v>33.16948306008587</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.17890880643785</v>
+        <v>14.65234167003815</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.34848150138972</v>
+        <v>18.79901502093462</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.26790286915748</v>
+        <v>15.01158883174319</v>
       </c>
       <c r="C12">
-        <v>8.079534345704964</v>
+        <v>12.95655486666298</v>
       </c>
       <c r="D12">
-        <v>7.297174014412793</v>
+        <v>5.944278985556896</v>
       </c>
       <c r="E12">
-        <v>12.96758360663903</v>
+        <v>18.55153617866735</v>
       </c>
       <c r="F12">
-        <v>41.14921750816949</v>
+        <v>48.82367328614636</v>
       </c>
       <c r="I12">
-        <v>31.47141773517939</v>
+        <v>33.46030514980608</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.21565811775102</v>
+        <v>14.8476736734679</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.39520507833258</v>
+        <v>19.0570760485797</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.25734996710978</v>
+        <v>14.96834746877199</v>
       </c>
       <c r="C13">
-        <v>8.066479670605842</v>
+        <v>12.91737933269955</v>
       </c>
       <c r="D13">
-        <v>7.296337034881619</v>
+        <v>5.943696546516472</v>
       </c>
       <c r="E13">
-        <v>12.95140675591184</v>
+        <v>18.49465416719411</v>
       </c>
       <c r="F13">
-        <v>41.11707614151184</v>
+        <v>48.71406282104281</v>
       </c>
       <c r="I13">
-        <v>31.45475119735271</v>
+        <v>33.39768774748955</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.20772889969635</v>
+        <v>14.80573350045831</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.38512489131767</v>
+        <v>19.00165633291</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.22295559669133</v>
+        <v>14.82679969795048</v>
       </c>
       <c r="C14">
-        <v>8.023816895085773</v>
+        <v>12.78919138567266</v>
       </c>
       <c r="D14">
-        <v>7.293599976511739</v>
+        <v>5.941803778842194</v>
       </c>
       <c r="E14">
-        <v>12.89859766165074</v>
+        <v>18.30857887946643</v>
       </c>
       <c r="F14">
-        <v>41.01223583210326</v>
+        <v>48.35613465652172</v>
       </c>
       <c r="I14">
-        <v>31.40042642911892</v>
+        <v>33.1934166108744</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.18192556373004</v>
+        <v>14.66846967769631</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.35231756547206</v>
+        <v>18.82031753489763</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.20190517778811</v>
+        <v>14.7396889444384</v>
       </c>
       <c r="C15">
-        <v>7.997617689673725</v>
+        <v>12.71034079253551</v>
       </c>
       <c r="D15">
-        <v>7.291917691693489</v>
+        <v>5.940649361032023</v>
       </c>
       <c r="E15">
-        <v>12.86621126508686</v>
+        <v>18.19415929619728</v>
       </c>
       <c r="F15">
-        <v>40.94800447544878</v>
+        <v>48.13653457266307</v>
       </c>
       <c r="I15">
-        <v>31.36717355539476</v>
+        <v>33.06824588451828</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.16616363885228</v>
+        <v>14.58401410321284</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.3322738549268</v>
+        <v>18.70877484211556</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.08157942515307</v>
+        <v>14.23412003568798</v>
       </c>
       <c r="C16">
-        <v>7.84649957935155</v>
+        <v>12.25327944401051</v>
       </c>
       <c r="D16">
-        <v>7.282188743419475</v>
+        <v>5.934102442716112</v>
       </c>
       <c r="E16">
-        <v>12.68007103168759</v>
+        <v>17.5314928435348</v>
       </c>
       <c r="F16">
-        <v>40.57979362402626</v>
+        <v>46.87254305133612</v>
       </c>
       <c r="I16">
-        <v>31.17699299670792</v>
+        <v>32.35016490979925</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.07653044952907</v>
+        <v>14.0941396967567</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.21823452057548</v>
+        <v>18.06224251724416</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.0080836823006</v>
+        <v>13.91816967609205</v>
       </c>
       <c r="C17">
-        <v>7.75297015379622</v>
+        <v>11.96812622685801</v>
       </c>
       <c r="D17">
-        <v>7.276141193124258</v>
+        <v>5.930139654938767</v>
       </c>
       <c r="E17">
-        <v>12.56545364517376</v>
+        <v>17.11855529194507</v>
       </c>
       <c r="F17">
-        <v>40.35388483872979</v>
+        <v>46.09213849320547</v>
       </c>
       <c r="I17">
-        <v>31.0606951230191</v>
+        <v>31.90893126921935</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.0221905919536</v>
+        <v>13.788246743237</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.14904229988134</v>
+        <v>17.65891001148209</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.965947538484517</v>
+        <v>13.73426830213264</v>
       </c>
       <c r="C18">
-        <v>7.698893309955415</v>
+        <v>11.80231821873774</v>
       </c>
       <c r="D18">
-        <v>7.272633622235877</v>
+        <v>5.927877144715383</v>
       </c>
       <c r="E18">
-        <v>12.49939700971867</v>
+        <v>16.87861569661024</v>
       </c>
       <c r="F18">
-        <v>40.22397535109258</v>
+        <v>45.64143560968922</v>
       </c>
       <c r="I18">
-        <v>30.99395380603552</v>
+        <v>31.65488047419266</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.99118530936726</v>
+        <v>13.610288972176</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.10953963589322</v>
+        <v>17.42439543922588</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.95170625233466</v>
+        <v>13.67162490280597</v>
       </c>
       <c r="C19">
-        <v>7.680537624500946</v>
+        <v>11.74586593556883</v>
       </c>
       <c r="D19">
-        <v>7.271440998675192</v>
+        <v>5.927113717931852</v>
       </c>
       <c r="E19">
-        <v>12.47701115411693</v>
+        <v>16.79695257843772</v>
       </c>
       <c r="F19">
-        <v>40.17999833266008</v>
+        <v>45.48852099035656</v>
       </c>
       <c r="I19">
-        <v>30.97138340833551</v>
+        <v>31.56881801427896</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.98073142270702</v>
+        <v>13.54968537931271</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.09621657444384</v>
+        <v>17.34455276043592</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.01589371634867</v>
+        <v>13.95202728871914</v>
       </c>
       <c r="C20">
-        <v>7.762956117759316</v>
+        <v>11.99866608977094</v>
       </c>
       <c r="D20">
-        <v>7.276787983150242</v>
+        <v>5.930559700752089</v>
       </c>
       <c r="E20">
-        <v>12.57766906765962</v>
+        <v>17.16276300242943</v>
       </c>
       <c r="F20">
-        <v>40.37793120399157</v>
+        <v>46.17540390868118</v>
       </c>
       <c r="I20">
-        <v>31.07305999525964</v>
+        <v>31.95592878997639</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.02794959682369</v>
+        <v>13.82101731528014</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.15637770186722</v>
+        <v>17.70210572409412</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.23305459067282</v>
+        <v>14.86846060667397</v>
       </c>
       <c r="C21">
-        <v>8.036362062403164</v>
+        <v>12.82691215164531</v>
       </c>
       <c r="D21">
-        <v>7.294405116273571</v>
+        <v>5.942358679316553</v>
       </c>
       <c r="E21">
-        <v>12.91411729429601</v>
+        <v>18.36332559399878</v>
       </c>
       <c r="F21">
-        <v>41.04303301072035</v>
+        <v>48.46134143449532</v>
       </c>
       <c r="I21">
-        <v>31.41637829306776</v>
+        <v>33.25342606381094</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.18949565771953</v>
+        <v>14.70886580098444</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.36194316578633</v>
+        <v>18.87367815337554</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.37579915618363</v>
+        <v>15.44899288287497</v>
       </c>
       <c r="C22">
-        <v>8.212105107874626</v>
+        <v>13.35324354150354</v>
       </c>
       <c r="D22">
-        <v>7.305660995430284</v>
+        <v>5.950283885022628</v>
       </c>
       <c r="E22">
-        <v>13.13231291977133</v>
+        <v>19.12793237394497</v>
       </c>
       <c r="F22">
-        <v>41.47720120374141</v>
+        <v>49.93925441981663</v>
       </c>
       <c r="I22">
-        <v>31.64180537875269</v>
+        <v>34.09921868796157</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.29704786123849</v>
+        <v>15.27211236790121</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.49864205475223</v>
+        <v>19.61827079589527</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.29955791637651</v>
+        <v>15.14078701430467</v>
       </c>
       <c r="C23">
-        <v>8.118597138785216</v>
+        <v>13.07364839706566</v>
       </c>
       <c r="D23">
-        <v>7.299677030823412</v>
+        <v>5.946031102655625</v>
       </c>
       <c r="E23">
-        <v>13.01603697400823</v>
+        <v>18.72159690931054</v>
       </c>
       <c r="F23">
-        <v>41.24556077354951</v>
+        <v>49.15190548116711</v>
       </c>
       <c r="I23">
-        <v>31.52140875375381</v>
+        <v>33.64798708088163</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.23947688772011</v>
+        <v>14.97300500122675</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.42548170633237</v>
+        <v>19.22272457211394</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.01236242934037</v>
+        <v>13.93672730329063</v>
       </c>
       <c r="C24">
-        <v>7.758442410078962</v>
+        <v>11.9848648519919</v>
       </c>
       <c r="D24">
-        <v>7.276495665183575</v>
+        <v>5.930369749669185</v>
       </c>
       <c r="E24">
-        <v>12.57214697257125</v>
+        <v>17.14278461345459</v>
       </c>
       <c r="F24">
-        <v>40.3670599318532</v>
+        <v>46.13776596249038</v>
       </c>
       <c r="I24">
-        <v>31.06746945983827</v>
+        <v>31.93468239406791</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.02534521462411</v>
+        <v>13.80620827771587</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.15306050118375</v>
+        <v>17.68258515974804</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.708048747748441</v>
+        <v>12.55434682710426</v>
       </c>
       <c r="C25">
-        <v>7.359527348687117</v>
+        <v>10.74133094572914</v>
       </c>
       <c r="D25">
-        <v>7.250373940265028</v>
+        <v>5.914090219271385</v>
       </c>
       <c r="E25">
-        <v>12.08864971251944</v>
+        <v>15.34621339403785</v>
       </c>
       <c r="F25">
-        <v>39.42095730829814</v>
+        <v>42.81704941372925</v>
       </c>
       <c r="I25">
-        <v>30.58372714413349</v>
+        <v>30.07679496469212</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.8040528742338</v>
+        <v>12.47012420461087</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.87063865240753</v>
+        <v>15.92399310138978</v>
       </c>
       <c r="N25">
         <v>0</v>
